--- a/medicine/Psychotrope/Liste_des_boissons_au_café/Liste_des_boissons_au_café.xlsx
+++ b/medicine/Psychotrope/Liste_des_boissons_au_café/Liste_des_boissons_au_café.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_boissons_au_caf%C3%A9</t>
+          <t>Liste_des_boissons_au_café</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article traite d'une liste (non exhaustive) de boissons au café et couvre différents types de boissons au café notables.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_boissons_au_caf%C3%A9</t>
+          <t>Liste_des_boissons_au_café</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Affogato</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un affogato (en Italien "noyé") est une boisson ou un dessert à base de café.
-Le « style Affogato », qui se réfère à l'acte de garnir une boisson ou un dessert avec un expresso, peut également incorporer de la sauce au caramel ou au chocolat, une boule de crème glacée vanille, de l'Amaretto ou d'autres liqueurs[1],[2],[3]. 
+Le « style Affogato », qui se réfère à l'acte de garnir une boisson ou un dessert avec un expresso, peut également incorporer de la sauce au caramel ou au chocolat, une boule de crème glacée vanille, de l'Amaretto ou d'autres liqueurs. 
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_boissons_au_caf%C3%A9</t>
+          <t>Liste_des_boissons_au_café</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Cappuccino</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le cappuccino est traditionnellement préparé avec un expresso et du lait chaud. La surface est garnie de mousse obtenue avec du lait chauffé à la vapeur jusqu'à le faire mousser. 
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_des_boissons_au_caf%C3%A9</t>
+          <t>Liste_des_boissons_au_café</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,10 +591,12 @@
           <t>Espresso</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Servi en petite quantité dans de petites tasses l'expresso est extrait par pression[4]), très concentré avec un fort arôme, il est obtenu par percolation sous haute pression, c'est-à-dire en faisant passer rapidement de l'eau chaude sous une pression de 9 bars (pression d'extraction optimale indiquée sur les manomètres des machines espresso professionnelles) à travers du café finement moulu et torréfié. 
+Servi en petite quantité dans de petites tasses l'expresso est extrait par pression), très concentré avec un fort arôme, il est obtenu par percolation sous haute pression, c'est-à-dire en faisant passer rapidement de l'eau chaude sous une pression de 9 bars (pression d'extraction optimale indiquée sur les manomètres des machines espresso professionnelles) à travers du café finement moulu et torréfié. 
 </t>
         </is>
       </c>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_des_boissons_au_caf%C3%A9</t>
+          <t>Liste_des_boissons_au_café</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Flat white</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Un  flat white  est un expresso avec une proportion similaire de café au lait comme un café latte et un cappuccino, la principale différence étant la texture du lait et (dans certaines régions) le nombre de doses d'espresso.
 La boisson est née en Australie et en Nouvelle-Zélande dans les années 1980 comme alternative au cappuccino.  
@@ -621,7 +641,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_des_boissons_au_caf%C3%A9</t>
+          <t>Liste_des_boissons_au_café</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -639,10 +659,12 @@
           <t>Latte</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Un café Latte ou un café latte est un expresso auquel on ajoute du lait cuit à la vapeur[5], généralement dans des proportions de 1:3 à 1:5 d'expresso et de lait, avec un peu de mousse sur le dessus. 
+Un café Latte ou un café latte est un expresso auquel on ajoute du lait cuit à la vapeur, généralement dans des proportions de 1:3 à 1:5 d'expresso et de lait, avec un peu de mousse sur le dessus. 
 </t>
         </is>
       </c>
@@ -653,7 +675,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_des_boissons_au_caf%C3%A9</t>
+          <t>Liste_des_boissons_au_café</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -671,7 +693,9 @@
           <t>Latte macchiato</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Servi dans un verre à parois épaisses, haut et étroit, ne devant pas être confondu avec le caffè macchiato, il est préparé  simplement en faisant mousser le lait, produisant généralement une mousse très généreuse, versée dans un verre, et en ajoutant un expresso par-dessus. (et non le contraire c'est-à-dire pas l'ajout de la mousse de lait dans l'expresso). 
@@ -685,7 +709,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Liste_des_boissons_au_caf%C3%A9</t>
+          <t>Liste_des_boissons_au_café</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -703,10 +727,12 @@
           <t>Macchiato</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Il s'agit d'un expresso sur lequel on verse une couche de mousse de lait chaud fouetté. Le tout est servi dans une tasse pour expresso ou fréquemment dans un verre (de préférence préchauffé) de façon que la couleur du café sous la couche de mousse et l'épaisseur de celle-ci soient visibles. Le café doit son nom à son apparence tachetée : macchiato signifie littéralement tacheté ou moucheté[6]. 
+Il s'agit d'un expresso sur lequel on verse une couche de mousse de lait chaud fouetté. Le tout est servi dans une tasse pour expresso ou fréquemment dans un verre (de préférence préchauffé) de façon que la couleur du café sous la couche de mousse et l'épaisseur de celle-ci soient visibles. Le café doit son nom à son apparence tachetée : macchiato signifie littéralement tacheté ou moucheté. 
 </t>
         </is>
       </c>
@@ -717,7 +743,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Liste_des_boissons_au_caf%C3%A9</t>
+          <t>Liste_des_boissons_au_café</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -735,10 +761,12 @@
           <t>Turc</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">
-À base de café en décoction, la cuisson s'effectue dans une petite casserole de fer blanc ou de cuivre appelée cezve[7] en Turquie et en Arménie, zazwa en Algérie et en Tunisie[8], briki (μπρίκι) en Grèce[9], ibric en Roumanie[10] et différentes appellations dans les pays arabes : rakwa (ركوة) au Liban et en Syrie, kanaka (كنكة) en Égypte[11]. 
+À base de café en décoction, la cuisson s'effectue dans une petite casserole de fer blanc ou de cuivre appelée cezve en Turquie et en Arménie, zazwa en Algérie et en Tunisie, briki (μπρίκι) en Grèce, ibric en Roumanie et différentes appellations dans les pays arabes : rakwa (ركوة) au Liban et en Syrie, kanaka (كنكة) en Égypte. 
 </t>
         </is>
       </c>
@@ -749,7 +777,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Liste_des_boissons_au_caf%C3%A9</t>
+          <t>Liste_des_boissons_au_café</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -767,7 +795,9 @@
           <t>Café filtre indien</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Le café filtre indien est une boisson au café et à la chicorée préparée en mélangeant du lait mousseux et bouilli avec l'infusion obtenue par percolation de poudre de café finement moulue dans un filtre indien traditionnel.
 </t>
@@ -780,7 +810,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Liste_des_boissons_au_caf%C3%A9</t>
+          <t>Liste_des_boissons_au_café</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -798,7 +828,9 @@
           <t>Café cold brew</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'un café appelé infusé à froid, le marc de café trempant dans de l'eau à température ambiante pendant une période prolongée.
 </t>
